--- a/pred_ohlcv/54_21/2019-11-13 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 FCT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>70740.96858983568</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>59740.96858983568</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>43622.57038983569</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,7 +808,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>29312.81228983569</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>38747.50558983569</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>38747.50558983569</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>38683.5023898357</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>32838.75908983569</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>32838.75908983569</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>193927.4809898357</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>101964.0312898357</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>34119.68618983566</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-154313.9260437247</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-49871.59653144507</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-57526.55803144507</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-1206250.262328551</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-1205634.736028551</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1125033.783675218</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-1174300.914175218</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-1144372.035075218</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 FCT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>70740.96858983568</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>59740.96858983568</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>43622.57038983569</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,7 +808,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>31977.14378983569</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>27950.32508983569</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>29312.81228983569</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>38747.50558983569</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>38747.50558983569</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>38683.5023898357</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>32838.75908983569</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>225112.9129898357</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>193927.4809898357</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>98314.86728983566</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>99978.02318983566</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>96009.65168983566</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>101962.0312898357</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>101964.0312898357</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>39045.98068983566</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>45003.00258983566</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>34119.68618983566</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>34119.68618983566</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>34119.68618983566</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>35008.68618983566</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-154313.9260437247</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>59184.52844598936</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>45015.26243570352</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>50695.62872541767</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>49348.62872541767</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-28006.90157458233</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-28006.90157458233</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-26410.02473144508</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-26410.02473144508</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-56265.35423144508</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-61497.23693144508</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-49871.59653144507</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-57526.55803144507</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-57524.55803144507</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1197085.732728551</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-1196667.860728551</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-1196657.860728551</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-1197550.699428551</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-1206250.262328551</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-1206250.262328551</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-1205634.736028551</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-1132021.702175218</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1125033.783675218</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1125035.983675218</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-1110200.582075218</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-1174300.914175218</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-1144372.035075218</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
